--- a/a.xlsx
+++ b/a.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6/10/1992</t>
+          <t>28/5/1961</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -567,10 +567,8 @@
           <t>Kevin McConnachie</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>11/9/1993</t>
-        </is>
+      <c r="B8" t="n">
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>

--- a/a.xlsx
+++ b/a.xlsx
@@ -444,10 +444,8 @@
           <t>John Buckley</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>28/5/1961</t>
-        </is>
+      <c r="B2" t="n">
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -464,6 +462,11 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Colin Smith</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>15/7/1962</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/a.xlsx
+++ b/a.xlsx
@@ -444,8 +444,10 @@
           <t>John Buckley</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13/12/1990</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -462,11 +464,6 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Colin Smith</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>15/7/1962</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">

--- a/a.xlsx
+++ b/a.xlsx
@@ -444,14 +444,12 @@
           <t>John Buckley</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>13/12/1990</t>
-        </is>
+      <c r="B2" t="n">
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PH10 6TY</t>
+          <t>22/9/1979</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -572,7 +570,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PA7 5JZ</t>
+          <t>11/8/1984</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/a.xlsx
+++ b/a.xlsx
@@ -444,12 +444,14 @@
           <t>John Buckley</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2/4/1985</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>22/9/1979</t>
+          <t>PH10 6TY</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -565,12 +567,14 @@
           <t>Kevin McConnachie</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>3</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>22/7/1964</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11/8/1984</t>
+          <t>PA7 5JZ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">

--- a/a.xlsx
+++ b/a.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2/4/1985</t>
+          <t>15/2/1980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>22/7/1964</t>
+          <t>7/4/1974</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">

--- a/a.xlsx
+++ b/a.xlsx
@@ -444,10 +444,8 @@
           <t>John Buckley</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>15/2/1980</t>
-        </is>
+      <c r="B2" t="n">
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -466,6 +464,11 @@
           <t>Colin Smith</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3/8/1980</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>ML8 5NJ</t>
@@ -567,10 +570,8 @@
           <t>Kevin McConnachie</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>7/4/1974</t>
-        </is>
+      <c r="B8" t="n">
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -587,6 +588,11 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Jacqueline Cumming</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14/6/1962</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
